--- a/parabolic/2025/07/17/parabolic.xlsx
+++ b/parabolic/2025/07/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>954</v>
+        <v>350</v>
       </c>
       <c r="D2" t="n">
-        <v>230700</v>
+        <v>137600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="D3" t="n">
-        <v>192400</v>
+        <v>288000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>931</v>
       </c>
       <c r="D4" t="n">
-        <v>476700</v>
+        <v>285900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>714</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>143100</v>
+        <v>842600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>405</v>
       </c>
       <c r="D6" t="n">
-        <v>1442500</v>
+        <v>1019100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>4813</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>899</v>
+        <v>718</v>
       </c>
       <c r="D7" t="n">
-        <v>3102400</v>
+        <v>241000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,108 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>570</v>
+        <v>283</v>
       </c>
       <c r="D8" t="n">
-        <v>1159800</v>
+        <v>130600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3261500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1790600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>892</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3994300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>565</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1421600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/17/parabolic.xlsx
+++ b/parabolic/2025/07/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" t="n">
-        <v>137600</v>
+        <v>186900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="D3" t="n">
-        <v>288000</v>
+        <v>373000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>297A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>931</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>285900</v>
+        <v>156200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>928</v>
       </c>
       <c r="D5" t="n">
-        <v>842600</v>
+        <v>375100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="D6" t="n">
-        <v>1019100</v>
+        <v>132900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>718</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>241000</v>
+        <v>1065500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D8" t="n">
-        <v>130600</v>
+        <v>291600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="D9" t="n">
-        <v>3261500</v>
+        <v>1188400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="D10" t="n">
-        <v>1790600</v>
+        <v>178600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>4813</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>892</v>
+        <v>731</v>
       </c>
       <c r="D11" t="n">
-        <v>3994300</v>
+        <v>380500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,154 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>565</v>
+        <v>419</v>
       </c>
       <c r="D12" t="n">
-        <v>1421600</v>
+        <v>124700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7063</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>278</v>
+      </c>
+      <c r="D13" t="n">
+        <v>150500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>682</v>
+      </c>
+      <c r="D14" t="n">
+        <v>207600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>360</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6717700</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2175500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>899</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4583200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>568</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1691300</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/17/parabolic.xlsx
+++ b/parabolic/2025/07/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>349</v>
       </c>
       <c r="D2" t="n">
-        <v>186900</v>
+        <v>239000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D3" t="n">
-        <v>373000</v>
+        <v>474000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
-        <v>156200</v>
+        <v>193900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="D5" t="n">
-        <v>375100</v>
+        <v>561800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D6" t="n">
-        <v>132900</v>
+        <v>196300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>1065500</v>
+        <v>1507600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>291600</v>
+        <v>1136300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="D9" t="n">
-        <v>1188400</v>
+        <v>344800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="D10" t="n">
-        <v>178600</v>
+        <v>1273800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>731</v>
+        <v>307</v>
       </c>
       <c r="D11" t="n">
-        <v>380500</v>
+        <v>198200</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>4813</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>419</v>
+        <v>741</v>
       </c>
       <c r="D12" t="n">
-        <v>124700</v>
+        <v>525300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="D13" t="n">
-        <v>150500</v>
+        <v>139300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7803</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>682</v>
+        <v>281</v>
       </c>
       <c r="D14" t="n">
-        <v>207600</v>
+        <v>185600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>7135</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="D15" t="n">
-        <v>6717700</v>
+        <v>111600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>7803</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>112</v>
+        <v>678</v>
       </c>
       <c r="D16" t="n">
-        <v>2175500</v>
+        <v>279600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>7850</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D17" t="n">
-        <v>4583200</v>
+        <v>101000</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>8746</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,85 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>568</v>
+        <v>348</v>
       </c>
       <c r="D18" t="n">
-        <v>1691300</v>
+        <v>8486200</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>113</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2271800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>901</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5216700</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>570</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1958900</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/17/parabolic.xlsx
+++ b/parabolic/2025/07/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>486</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>196300</v>
+        <v>1507600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -600,7 +600,7 @@
         <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>1507600</v>
+        <v>1136300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3667</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="D8" t="n">
-        <v>1136300</v>
+        <v>344800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="D9" t="n">
-        <v>344800</v>
+        <v>1273800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="D10" t="n">
-        <v>1273800</v>
+        <v>198200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4813</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>307</v>
+        <v>741</v>
       </c>
       <c r="D11" t="n">
-        <v>198200</v>
+        <v>525300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>741</v>
+        <v>418</v>
       </c>
       <c r="D12" t="n">
-        <v>525300</v>
+        <v>139300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="D13" t="n">
-        <v>139300</v>
+        <v>185600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>7135</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="D14" t="n">
-        <v>185600</v>
+        <v>111600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7135</t>
+          <t>7803</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>224</v>
+        <v>678</v>
       </c>
       <c r="D15" t="n">
-        <v>111600</v>
+        <v>279600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7803</t>
+          <t>7850</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>678</v>
+        <v>895</v>
       </c>
       <c r="D16" t="n">
-        <v>279600</v>
+        <v>101000</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7850</t>
+          <t>8746</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>895</v>
+        <v>348</v>
       </c>
       <c r="D17" t="n">
-        <v>101000</v>
+        <v>8486200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>8946</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="D18" t="n">
-        <v>8486200</v>
+        <v>2271800</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>9166</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>113</v>
+        <v>901</v>
       </c>
       <c r="D19" t="n">
-        <v>2271800</v>
+        <v>5216700</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,39 +896,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>901</v>
+        <v>570</v>
       </c>
       <c r="D20" t="n">
-        <v>5216700</v>
+        <v>1958900</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>9348</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-17</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>570</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1958900</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
